--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC5_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2557689401312068</v>
+        <v>0.2461535555158222</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2557689401312068, 'ngram_match_score': 0.09378996018278257, 'weighted_ngram_match_score': 0.1673936694843966, 'syntax_match_score': 0.4413793103448276, 'dataflow_match_score': 0.32051282051282054}</t>
+          <t>{'codebleu': 0.24615355551582221, 'ngram_match_score': 0.09378996018278257, 'weighted_ngram_match_score': 0.1673936694843966, 'syntax_match_score': 0.4413793103448276, 'dataflow_match_score': 0.28205128205128205}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC5_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2461535555158222</v>
+        <v>0.2557689401312068</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.24615355551582221, 'ngram_match_score': 0.09378996018278257, 'weighted_ngram_match_score': 0.1673936694843966, 'syntax_match_score': 0.4413793103448276, 'dataflow_match_score': 0.28205128205128205}</t>
+          <t>{'codebleu': 0.2557689401312068, 'ngram_match_score': 0.09378996018278257, 'weighted_ngram_match_score': 0.1673936694843966, 'syntax_match_score': 0.4413793103448276, 'dataflow_match_score': 0.32051282051282054}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
